--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="1460" windowWidth="8420" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="15160" yWindow="2740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>測距センサ RDI-209</t>
-    <rPh sb="0" eb="1">
-      <t>ソクテイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>キョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステッピングモーター 17PM-K044-AKZ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,6 +59,16 @@
     <t>個数</t>
     <rPh sb="0" eb="2">
       <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャープ測距モジュール GP2Y0A21YK</t>
+    <rPh sb="4" eb="5">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -460,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -500,7 +500,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
